--- a/src/xlsx_extract/test_data/source.xlsx
+++ b/src/xlsx_extract/test_data/source.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/686E0EB5-7A4F-4BA9-990C-1A00608B1930/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{D564ED7C-3349-0145-A9F0-9138ACF29AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A34AAFA7-F32E-0146-8ECF-48C31F91508A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077859CA-36DE-8C43-919D-DD537CF759FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37560" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report 1" sheetId="1" r:id="rId1"/>
     <sheet name="Report 2" sheetId="2" r:id="rId2"/>
     <sheet name="Report 3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="CARS_RANGE">'Report 2'!$B$4:$H$8</definedName>
+    <definedName name="DATE_CELL">'Report 1'!$C$3</definedName>
+    <definedName name="MONTHS_RANGE">'Report 1'!$B$5:$F$9</definedName>
+    <definedName name="PROFIT_RANGE">'Report 3'!$A$1:$E$5</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -193,11 +199,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,7 +222,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF847FD9-DAB7-6049-B4A5-885CF042E574}" name="Table2" displayName="Table2" ref="B10:E13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF847FD9-DAB7-6049-B4A5-885CF042E574}" name="RangleTable" displayName="RangleTable" ref="B10:E13" totalsRowShown="0">
   <autoFilter ref="B10:E13" xr:uid="{4406634F-36E4-6245-B598-942BF9A1F77B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EDF4FC11-0B2A-F549-AF70-6E381130B144}" name="Name"/>
@@ -527,13 +533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CB2ACF-D95E-3340-AEE4-CC6F43CEB251}">
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -636,13 +642,13 @@
   <dimension ref="B4:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B4" sqref="B4:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -814,35 +820,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B8AE41-56F3-7545-A8D7-6EAF88B84AB9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -850,16 +856,16 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>100</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>50</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>20</v>
       </c>
     </row>
@@ -867,16 +873,16 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>200</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>150</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>50</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>20</v>
       </c>
     </row>
@@ -884,16 +890,16 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>300</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>350</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>50</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>20</v>
       </c>
     </row>

--- a/src/xlsx_extract/test_data/source.xlsx
+++ b/src/xlsx_extract/test_data/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077859CA-36DE-8C43-919D-DD537CF759FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{077859CA-36DE-8C43-919D-DD537CF759FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2BE5884-D45C-7048-B7AF-4DF0840ABF0F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37560" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Plan</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
 </sst>
 </file>
@@ -531,15 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CB2ACF-D95E-3340-AEE4-CC6F43CEB251}">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -630,6 +642,22 @@
       </c>
       <c r="F9">
         <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -642,13 +670,13 @@
   <dimension ref="B4:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -821,10 +849,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
